--- a/Team-Data/2014-15/2-1-2014-15.xlsx
+++ b/Team-Data/2014-15/2-1-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>7.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>1</v>
@@ -777,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP2" t="n">
         <v>18</v>
@@ -786,7 +853,7 @@
         <v>8</v>
       </c>
       <c r="AR2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AS2" t="n">
         <v>14</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-1-2014-15</t>
+          <t>2015-02-01</t>
         </is>
       </c>
     </row>
@@ -848,46 +915,46 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
       </c>
       <c r="F3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" t="n">
-        <v>0.348</v>
+        <v>0.356</v>
       </c>
       <c r="H3" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I3" t="n">
-        <v>39.3</v>
+        <v>39.5</v>
       </c>
       <c r="J3" t="n">
-        <v>87.59999999999999</v>
+        <v>87.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0.448</v>
+        <v>0.45</v>
       </c>
       <c r="L3" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M3" t="n">
         <v>23</v>
       </c>
       <c r="N3" t="n">
-        <v>0.328</v>
+        <v>0.33</v>
       </c>
       <c r="O3" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="P3" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.752</v>
+        <v>0.755</v>
       </c>
       <c r="R3" t="n">
         <v>10.6</v>
@@ -899,7 +966,7 @@
         <v>43.3</v>
       </c>
       <c r="U3" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="V3" t="n">
         <v>14.5</v>
@@ -911,28 +978,28 @@
         <v>4.1</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA3" t="n">
         <v>18</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.9</v>
+        <v>101.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>-2.2</v>
+        <v>-2</v>
       </c>
       <c r="AD3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE3" t="n">
         <v>25</v>
       </c>
       <c r="AF3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG3" t="n">
         <v>24</v>
@@ -968,40 +1035,40 @@
         <v>16</v>
       </c>
       <c r="AR3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AS3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU3" t="n">
         <v>5</v>
       </c>
       <c r="AV3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW3" t="n">
         <v>10</v>
       </c>
       <c r="AX3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY3" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AZ3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA3" t="n">
         <v>30</v>
       </c>
       <c r="BB3" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BC3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-1-2014-15</t>
+          <t>2015-02-01</t>
         </is>
       </c>
     </row>
@@ -1132,7 +1199,7 @@
         <v>18</v>
       </c>
       <c r="AL4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM4" t="n">
         <v>19</v>
@@ -1153,7 +1220,7 @@
         <v>26</v>
       </c>
       <c r="AS4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT4" t="n">
         <v>23</v>
@@ -1162,7 +1229,7 @@
         <v>22</v>
       </c>
       <c r="AV4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW4" t="n">
         <v>18</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-1-2014-15</t>
+          <t>2015-02-01</t>
         </is>
       </c>
     </row>
@@ -1290,10 +1357,10 @@
         <v>-2.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
         <v>18</v>
@@ -1338,7 +1405,7 @@
         <v>7</v>
       </c>
       <c r="AT5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU5" t="n">
         <v>26</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-1-2014-15</t>
+          <t>2015-02-01</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>2.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE6" t="n">
         <v>10</v>
@@ -1535,7 +1602,7 @@
         <v>1</v>
       </c>
       <c r="AY6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
         <v>3</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-1-2014-15</t>
+          <t>2015-02-01</t>
         </is>
       </c>
     </row>
@@ -1654,10 +1721,10 @@
         <v>2.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF7" t="n">
         <v>12</v>
@@ -1669,7 +1736,7 @@
         <v>27</v>
       </c>
       <c r="AI7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ7" t="n">
         <v>20</v>
@@ -1684,13 +1751,13 @@
         <v>10</v>
       </c>
       <c r="AN7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO7" t="n">
         <v>6</v>
       </c>
       <c r="AP7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ7" t="n">
         <v>15</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-1-2014-15</t>
+          <t>2015-02-01</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E8" t="n">
         <v>32</v>
       </c>
       <c r="F8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8" t="n">
-        <v>0.667</v>
+        <v>0.653</v>
       </c>
       <c r="H8" t="n">
         <v>48.5</v>
@@ -1776,7 +1843,7 @@
         <v>40.3</v>
       </c>
       <c r="J8" t="n">
-        <v>85.59999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="K8" t="n">
         <v>0.471</v>
@@ -1785,7 +1852,7 @@
         <v>9.5</v>
       </c>
       <c r="M8" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="N8" t="n">
         <v>0.36</v>
@@ -1794,25 +1861,25 @@
         <v>16.9</v>
       </c>
       <c r="P8" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.758</v>
+        <v>0.759</v>
       </c>
       <c r="R8" t="n">
         <v>10.6</v>
       </c>
       <c r="S8" t="n">
-        <v>31.6</v>
+        <v>31.4</v>
       </c>
       <c r="T8" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U8" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="V8" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="W8" t="n">
         <v>8.1</v>
@@ -1827,34 +1894,34 @@
         <v>19.9</v>
       </c>
       <c r="AA8" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AB8" t="n">
-        <v>107</v>
+        <v>106.9</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK8" t="n">
         <v>5</v>
@@ -1866,7 +1933,7 @@
         <v>5</v>
       </c>
       <c r="AN8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO8" t="n">
         <v>19</v>
@@ -1875,13 +1942,13 @@
         <v>20</v>
       </c>
       <c r="AQ8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT8" t="n">
         <v>20</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-1-2014-15</t>
+          <t>2015-02-01</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-3.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
         <v>19</v>
@@ -2030,7 +2097,7 @@
         <v>19</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI9" t="n">
         <v>14</v>
@@ -2054,7 +2121,7 @@
         <v>9</v>
       </c>
       <c r="AP9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ9" t="n">
         <v>25</v>
@@ -2069,7 +2136,7 @@
         <v>5</v>
       </c>
       <c r="AU9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV9" t="n">
         <v>11</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-1-2014-15</t>
+          <t>2015-02-01</t>
         </is>
       </c>
     </row>
@@ -2200,19 +2267,19 @@
         <v>-2.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
         <v>20</v>
       </c>
       <c r="AF10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG10" t="n">
         <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI10" t="n">
         <v>23</v>
@@ -2275,7 +2342,7 @@
         <v>21</v>
       </c>
       <c r="BC10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-1-2014-15</t>
+          <t>2015-02-01</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>11.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE11" t="n">
         <v>2</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-1-2014-15</t>
+          <t>2015-02-01</t>
         </is>
       </c>
     </row>
@@ -2486,55 +2553,55 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" t="n">
         <v>15</v>
       </c>
       <c r="G12" t="n">
-        <v>0.681</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="J12" t="n">
-        <v>83.59999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L12" t="n">
         <v>11.8</v>
       </c>
       <c r="M12" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="N12" t="n">
-        <v>0.35</v>
+        <v>0.352</v>
       </c>
       <c r="O12" t="n">
-        <v>17.3</v>
+        <v>17.6</v>
       </c>
       <c r="P12" t="n">
-        <v>24</v>
+        <v>24.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.72</v>
+        <v>0.719</v>
       </c>
       <c r="R12" t="n">
         <v>12</v>
       </c>
       <c r="S12" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T12" t="n">
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="U12" t="n">
         <v>21.3</v>
@@ -2543,46 +2610,46 @@
         <v>17.3</v>
       </c>
       <c r="W12" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X12" t="n">
         <v>4.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AF12" t="n">
         <v>4</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI12" t="n">
         <v>21</v>
       </c>
       <c r="AJ12" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AK12" t="n">
         <v>21</v>
@@ -2594,25 +2661,25 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO12" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AP12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
       </c>
       <c r="AR12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS12" t="n">
         <v>22</v>
       </c>
       <c r="AT12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU12" t="n">
         <v>16</v>
@@ -2624,22 +2691,22 @@
         <v>1</v>
       </c>
       <c r="AX12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB12" t="n">
         <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-1-2014-15</t>
+          <t>2015-02-01</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-2</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE13" t="n">
         <v>22</v>
@@ -2764,7 +2831,7 @@
         <v>25</v>
       </c>
       <c r="AJ13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK13" t="n">
         <v>27</v>
@@ -2800,7 +2867,7 @@
         <v>20</v>
       </c>
       <c r="AV13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW13" t="n">
         <v>29</v>
@@ -2812,7 +2879,7 @@
         <v>16</v>
       </c>
       <c r="AZ13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA13" t="n">
         <v>8</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-1-2014-15</t>
+          <t>2015-02-01</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>7.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-1-2014-15</t>
+          <t>2015-02-01</t>
         </is>
       </c>
     </row>
@@ -3050,25 +3117,25 @@
         <v>37.3</v>
       </c>
       <c r="J15" t="n">
-        <v>85.5</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K15" t="n">
         <v>0.436</v>
       </c>
       <c r="L15" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M15" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="N15" t="n">
-        <v>0.348</v>
+        <v>0.346</v>
       </c>
       <c r="O15" t="n">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="P15" t="n">
-        <v>24.3</v>
+        <v>24.7</v>
       </c>
       <c r="Q15" t="n">
         <v>0.747</v>
@@ -3077,10 +3144,10 @@
         <v>11.5</v>
       </c>
       <c r="S15" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="T15" t="n">
-        <v>43.5</v>
+        <v>43.3</v>
       </c>
       <c r="U15" t="n">
         <v>20.5</v>
@@ -3098,19 +3165,19 @@
         <v>4.4</v>
       </c>
       <c r="Z15" t="n">
-        <v>21</v>
+        <v>21.3</v>
       </c>
       <c r="AA15" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.40000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.4</v>
+        <v>-6.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3125,10 +3192,10 @@
         <v>11</v>
       </c>
       <c r="AI15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK15" t="n">
         <v>24</v>
@@ -3140,13 +3207,13 @@
         <v>23</v>
       </c>
       <c r="AN15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AQ15" t="n">
         <v>20</v>
@@ -3155,10 +3222,10 @@
         <v>10</v>
       </c>
       <c r="AS15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AU15" t="n">
         <v>23</v>
@@ -3170,13 +3237,13 @@
         <v>19</v>
       </c>
       <c r="AX15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY15" t="n">
         <v>9</v>
       </c>
       <c r="AZ15" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="BA15" t="n">
         <v>19</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-1-2014-15</t>
+          <t>2015-02-01</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>5.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3310,7 +3377,7 @@
         <v>8</v>
       </c>
       <c r="AJ16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK16" t="n">
         <v>7</v>
@@ -3322,10 +3389,10 @@
         <v>28</v>
       </c>
       <c r="AN16" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP16" t="n">
         <v>11</v>
@@ -3337,7 +3404,7 @@
         <v>20</v>
       </c>
       <c r="AS16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT16" t="n">
         <v>16</v>
@@ -3346,7 +3413,7 @@
         <v>10</v>
       </c>
       <c r="AV16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW16" t="n">
         <v>8</v>
@@ -3364,7 +3431,7 @@
         <v>11</v>
       </c>
       <c r="BB16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC16" t="n">
         <v>6</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-1-2014-15</t>
+          <t>2015-02-01</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F17" t="n">
         <v>26</v>
       </c>
       <c r="G17" t="n">
-        <v>0.447</v>
+        <v>0.435</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
@@ -3414,25 +3481,25 @@
         <v>34.1</v>
       </c>
       <c r="J17" t="n">
-        <v>75</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="L17" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M17" t="n">
         <v>20.5</v>
       </c>
       <c r="N17" t="n">
-        <v>0.337</v>
+        <v>0.34</v>
       </c>
       <c r="O17" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="P17" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="Q17" t="n">
         <v>0.74</v>
@@ -3441,22 +3508,22 @@
         <v>8.5</v>
       </c>
       <c r="S17" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="T17" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="U17" t="n">
         <v>19.9</v>
       </c>
       <c r="V17" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="W17" t="n">
         <v>8</v>
       </c>
       <c r="X17" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y17" t="n">
         <v>4.3</v>
@@ -3468,13 +3535,13 @@
         <v>20.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>92.40000000000001</v>
+        <v>92.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>-3.5</v>
+        <v>-3.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3495,19 +3562,19 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM17" t="n">
         <v>20</v>
       </c>
       <c r="AN17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
         <v>13</v>
@@ -3516,7 +3583,7 @@
         <v>23</v>
       </c>
       <c r="AR17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AS17" t="n">
         <v>29</v>
@@ -3528,13 +3595,13 @@
         <v>29</v>
       </c>
       <c r="AV17" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AW17" t="n">
         <v>11</v>
       </c>
       <c r="AX17" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AY17" t="n">
         <v>8</v>
@@ -3543,7 +3610,7 @@
         <v>13</v>
       </c>
       <c r="BA17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB17" t="n">
         <v>29</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-1-2014-15</t>
+          <t>2015-02-01</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>1.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE18" t="n">
         <v>14</v>
@@ -3722,7 +3789,7 @@
         <v>11</v>
       </c>
       <c r="AZ18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA18" t="n">
         <v>23</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-1-2014-15</t>
+          <t>2015-02-01</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-9.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE19" t="n">
         <v>30</v>
@@ -3850,7 +3917,7 @@
         <v>30</v>
       </c>
       <c r="AH19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI19" t="n">
         <v>20</v>
@@ -3868,7 +3935,7 @@
         <v>30</v>
       </c>
       <c r="AN19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO19" t="n">
         <v>5</v>
@@ -3898,7 +3965,7 @@
         <v>7</v>
       </c>
       <c r="AX19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY19" t="n">
         <v>27</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-1-2014-15</t>
+          <t>2015-02-01</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F20" t="n">
         <v>22</v>
       </c>
       <c r="G20" t="n">
-        <v>0.522</v>
+        <v>0.532</v>
       </c>
       <c r="H20" t="n">
         <v>48.2</v>
@@ -3960,76 +4027,76 @@
         <v>38.2</v>
       </c>
       <c r="J20" t="n">
-        <v>83.5</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.457</v>
+        <v>0.455</v>
       </c>
       <c r="L20" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M20" t="n">
         <v>18.9</v>
       </c>
       <c r="N20" t="n">
-        <v>0.348</v>
+        <v>0.346</v>
       </c>
       <c r="O20" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="P20" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.766</v>
+        <v>0.758</v>
       </c>
       <c r="R20" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="S20" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T20" t="n">
-        <v>43.8</v>
+        <v>44.2</v>
       </c>
       <c r="U20" t="n">
         <v>21.2</v>
       </c>
       <c r="V20" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="W20" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X20" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z20" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="AB20" t="n">
         <v>100.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AE20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF20" t="n">
         <v>14</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH20" t="n">
         <v>22</v>
@@ -4038,43 +4105,43 @@
         <v>10</v>
       </c>
       <c r="AJ20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM20" t="n">
         <v>25</v>
       </c>
       <c r="AN20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP20" t="n">
         <v>17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AR20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AS20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT20" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AU20" t="n">
         <v>19</v>
       </c>
       <c r="AV20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW20" t="n">
         <v>23</v>
@@ -4095,7 +4162,7 @@
         <v>16</v>
       </c>
       <c r="BC20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-1-2014-15</t>
+          <t>2015-02-01</t>
         </is>
       </c>
     </row>
@@ -4124,22 +4191,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>38</v>
       </c>
       <c r="G21" t="n">
-        <v>0.208</v>
+        <v>0.191</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J21" t="n">
         <v>81.90000000000001</v>
@@ -4148,43 +4215,43 @@
         <v>0.439</v>
       </c>
       <c r="L21" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="M21" t="n">
         <v>20.5</v>
       </c>
       <c r="N21" t="n">
-        <v>0.361</v>
+        <v>0.359</v>
       </c>
       <c r="O21" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="P21" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.765</v>
+        <v>0.768</v>
       </c>
       <c r="R21" t="n">
         <v>10.6</v>
       </c>
       <c r="S21" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T21" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="U21" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V21" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W21" t="n">
         <v>7.2</v>
       </c>
       <c r="X21" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y21" t="n">
         <v>4.1</v>
@@ -4193,25 +4260,25 @@
         <v>22.1</v>
       </c>
       <c r="AA21" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AB21" t="n">
         <v>92.7</v>
       </c>
       <c r="AC21" t="n">
-        <v>-7.5</v>
+        <v>-7.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="AE21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF21" t="n">
         <v>28</v>
       </c>
       <c r="AG21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH21" t="n">
         <v>19</v>
@@ -4232,7 +4299,7 @@
         <v>21</v>
       </c>
       <c r="AN21" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4241,10 +4308,10 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AR21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS21" t="n">
         <v>28</v>
@@ -4253,10 +4320,10 @@
         <v>29</v>
       </c>
       <c r="AU21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AW21" t="n">
         <v>22</v>
@@ -4271,7 +4338,7 @@
         <v>25</v>
       </c>
       <c r="BA21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB21" t="n">
         <v>28</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-1-2014-15</t>
+          <t>2015-02-01</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>0.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE22" t="n">
         <v>16</v>
@@ -4399,7 +4466,7 @@
         <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ22" t="n">
         <v>10</v>
@@ -4417,7 +4484,7 @@
         <v>27</v>
       </c>
       <c r="AO22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP22" t="n">
         <v>14</v>
@@ -4426,7 +4493,7 @@
         <v>22</v>
       </c>
       <c r="AR22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS22" t="n">
         <v>3</v>
@@ -4450,7 +4517,7 @@
         <v>13</v>
       </c>
       <c r="AZ22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA22" t="n">
         <v>22</v>
@@ -4459,7 +4526,7 @@
         <v>19</v>
       </c>
       <c r="BC22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-1-2014-15</t>
+          <t>2015-02-01</t>
         </is>
       </c>
     </row>
@@ -4488,40 +4555,40 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
       </c>
       <c r="F23" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G23" t="n">
-        <v>0.306</v>
+        <v>0.3</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J23" t="n">
         <v>81.59999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.457</v>
+        <v>0.455</v>
       </c>
       <c r="L23" t="n">
         <v>7</v>
       </c>
       <c r="M23" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="N23" t="n">
         <v>0.362</v>
       </c>
       <c r="O23" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="P23" t="n">
         <v>19.8</v>
@@ -4530,13 +4597,13 @@
         <v>0.731</v>
       </c>
       <c r="R23" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="S23" t="n">
-        <v>31.5</v>
+        <v>31.7</v>
       </c>
       <c r="T23" t="n">
-        <v>40.3</v>
+        <v>40.6</v>
       </c>
       <c r="U23" t="n">
         <v>20.3</v>
@@ -4548,22 +4615,22 @@
         <v>7.5</v>
       </c>
       <c r="X23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA23" t="n">
         <v>18.7</v>
       </c>
       <c r="AB23" t="n">
-        <v>96</v>
+        <v>95.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>-6.1</v>
+        <v>-6.3</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -4572,25 +4639,25 @@
         <v>26</v>
       </c>
       <c r="AF23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG23" t="n">
         <v>26</v>
       </c>
       <c r="AH23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ23" t="n">
         <v>24</v>
       </c>
       <c r="AK23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM23" t="n">
         <v>22</v>
@@ -4611,13 +4678,13 @@
         <v>28</v>
       </c>
       <c r="AS23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT23" t="n">
         <v>28</v>
       </c>
       <c r="AU23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV23" t="n">
         <v>20</v>
@@ -4629,16 +4696,16 @@
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ23" t="n">
         <v>22</v>
       </c>
       <c r="BA23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BB23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC23" t="n">
         <v>26</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-1-2014-15</t>
+          <t>2015-02-01</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-11.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4814,10 +4881,10 @@
         <v>23</v>
       </c>
       <c r="AZ24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-1-2014-15</t>
+          <t>2015-02-01</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>1.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4960,7 +5027,7 @@
         <v>3</v>
       </c>
       <c r="AN25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO25" t="n">
         <v>18</v>
@@ -4975,7 +5042,7 @@
         <v>16</v>
       </c>
       <c r="AS25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT25" t="n">
         <v>18</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-1-2014-15</t>
+          <t>2015-02-01</t>
         </is>
       </c>
     </row>
@@ -5112,10 +5179,10 @@
         <v>5.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF26" t="n">
         <v>7</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-1-2014-15</t>
+          <t>2015-02-01</t>
         </is>
       </c>
     </row>
@@ -5315,7 +5382,7 @@
         <v>28</v>
       </c>
       <c r="AK27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL27" t="n">
         <v>29</v>
@@ -5366,7 +5433,7 @@
         <v>1</v>
       </c>
       <c r="BB27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC27" t="n">
         <v>22</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-1-2014-15</t>
+          <t>2015-02-01</t>
         </is>
       </c>
     </row>
@@ -5398,73 +5465,73 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F28" t="n">
         <v>18</v>
       </c>
       <c r="G28" t="n">
-        <v>0.617</v>
+        <v>0.625</v>
       </c>
       <c r="H28" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="I28" t="n">
         <v>37.8</v>
       </c>
       <c r="J28" t="n">
-        <v>83.2</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.454</v>
+        <v>0.456</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.367</v>
+      </c>
+      <c r="O28" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="P28" t="n">
         <v>22.4</v>
       </c>
-      <c r="N28" t="n">
-        <v>0.364</v>
-      </c>
-      <c r="O28" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="P28" t="n">
-        <v>22.5</v>
-      </c>
       <c r="Q28" t="n">
-        <v>0.765</v>
+        <v>0.766</v>
       </c>
       <c r="R28" t="n">
         <v>9.9</v>
       </c>
       <c r="S28" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="T28" t="n">
-        <v>43.9</v>
+        <v>43.7</v>
       </c>
       <c r="U28" t="n">
         <v>24.1</v>
       </c>
       <c r="V28" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W28" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X28" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA28" t="n">
         <v>20.2</v>
@@ -5473,13 +5540,13 @@
         <v>101</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF28" t="n">
         <v>10</v>
@@ -5488,7 +5555,7 @@
         <v>10</v>
       </c>
       <c r="AH28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI28" t="n">
         <v>13</v>
@@ -5497,7 +5564,7 @@
         <v>18</v>
       </c>
       <c r="AK28" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AL28" t="n">
         <v>11</v>
@@ -5509,7 +5576,7 @@
         <v>7</v>
       </c>
       <c r="AO28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP28" t="n">
         <v>19</v>
@@ -5524,13 +5591,13 @@
         <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AW28" t="n">
         <v>14</v>
@@ -5548,10 +5615,10 @@
         <v>18</v>
       </c>
       <c r="BB28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-1-2014-15</t>
+          <t>2015-02-01</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>5.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
         <v>4</v>
@@ -5688,7 +5755,7 @@
         <v>7</v>
       </c>
       <c r="AN29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO29" t="n">
         <v>3</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-1-2014-15</t>
+          <t>2015-02-01</t>
         </is>
       </c>
     </row>
@@ -5840,13 +5907,13 @@
         <v>-2.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE30" t="n">
         <v>22</v>
       </c>
       <c r="AF30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG30" t="n">
         <v>23</v>
@@ -5873,7 +5940,7 @@
         <v>20</v>
       </c>
       <c r="AO30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP30" t="n">
         <v>16</v>
@@ -5891,7 +5958,7 @@
         <v>17</v>
       </c>
       <c r="AU30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV30" t="n">
         <v>26</v>
@@ -5912,7 +5979,7 @@
         <v>24</v>
       </c>
       <c r="BB30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC30" t="n">
         <v>21</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-1-2014-15</t>
+          <t>2015-02-01</t>
         </is>
       </c>
     </row>
@@ -6022,13 +6089,13 @@
         <v>2</v>
       </c>
       <c r="AD31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE31" t="n">
         <v>9</v>
       </c>
       <c r="AF31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG31" t="n">
         <v>9</v>
@@ -6088,7 +6155,7 @@
         <v>7</v>
       </c>
       <c r="AZ31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA31" t="n">
         <v>17</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-1-2014-15</t>
+          <t>2015-02-01</t>
         </is>
       </c>
     </row>
